--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-730273.6873027772</v>
+        <v>-733058.528580301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433944.62717039</v>
+        <v>12433859.31651125</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13596122.14026913</v>
+        <v>13598747.46045642</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.0596109626759</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>97.26234557100815</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.0644329205798</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>107.8762134663792</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.6047955846224</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>87.10648187212962</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.9425640181819</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.85443941819444</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2917499226868</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>308.6385254346067</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.4071898233312</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>11.07264492992291</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7324967735342</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.67637889409517</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.92948347001172</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1332524146627208</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6711859838013</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8353938974435</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.65186927660741</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6403539814364</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2188850644588</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>57.10714863042625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.5643630612363</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4788812392278</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>170.6872000407547</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>201.4296610146753</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>236.088044263579</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.67028805509852</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>32.75200525959115</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.497761060702</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1409669751338</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>103.0758452247877</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.1213657616692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9983704303365</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.58626394794874</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.77938941639435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.07469190007583393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1230991138289</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7121416443333</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7870961117068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>101.3208278811443</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0248871162016</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.32471913283382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5450134840918</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>210.0085370018424</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>162.7401913819055</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.8107367464759</v>
+        <v>181.0262860016477</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>20.92847288552865</v>
       </c>
       <c r="I19" t="n">
-        <v>35.41770597126712</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.006892987834553</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>135.0949745400653</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.155784569981</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.92847288552863</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>164.6623753264744</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>152.0772162431649</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>133.4458681627495</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>131.2643577911063</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>38.06664266812862</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>150.354533436806</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652687</v>
+        <v>66.09623146310264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>51.20564185465879</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>165.8566811461817</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>202.2358454718254</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>271.0148695337813</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>236.9680384683651</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>271.3533934811281</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>210.5400505335743</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>203.4150484966319</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652687</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652687</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3980,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4141,19 +4141,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002282</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.7330060626393</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>419.7330060626393</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>419.7330060626393</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165021</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4334,16 +4334,16 @@
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298174</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298174</v>
+        <v>690.233069932778</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298174</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298174</v>
+        <v>690.233069932778</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626393</v>
+        <v>690.233069932778</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>463.2156131725892</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="C3" t="n">
-        <v>288.7625838914622</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="D3" t="n">
-        <v>139.8281742302109</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>139.8281742302109</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>139.8281742302109</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8281742302109</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>39.34401234010009</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,49 +4410,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>100.9913896951733</v>
+        <v>141.1068094710483</v>
       </c>
       <c r="L3" t="n">
-        <v>247.73581335547</v>
+        <v>287.851233131345</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519939</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545989</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098647</v>
+        <v>927.5537640245531</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098647</v>
+        <v>699.4179180613665</v>
       </c>
       <c r="V3" t="n">
-        <v>671.067113378122</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="W3" t="n">
-        <v>671.067113378122</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="X3" t="n">
-        <v>463.2156131725892</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="Y3" t="n">
-        <v>463.2156131725892</v>
+        <v>464.2658098296238</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.7044835239748</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>493.7044835239748</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>343.5878441116391</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5878441116391</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165363</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165363</v>
+        <v>722.421784179473</v>
       </c>
       <c r="U4" t="n">
-        <v>581.6908288493582</v>
+        <v>456.044127612295</v>
       </c>
       <c r="V4" t="n">
-        <v>581.6908288493582</v>
+        <v>456.044127612295</v>
       </c>
       <c r="W4" t="n">
-        <v>493.7044835239748</v>
+        <v>189.666471045117</v>
       </c>
       <c r="X4" t="n">
-        <v>493.7044835239748</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.7044835239748</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.230024445795</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="C5" t="n">
-        <v>818.2675075053835</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="D5" t="n">
-        <v>818.2675075053835</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="E5" t="n">
-        <v>818.2675075053835</v>
+        <v>457.1269731198875</v>
       </c>
       <c r="F5" t="n">
-        <v>761.8488818304396</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>345.3925687772206</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>33.636482479638</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
-        <v>33.636482479638</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J5" t="n">
-        <v>107.3993070910258</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>268.6891783897528</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>505.6852878197869</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>801.0585612663376</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>1105.825091459336</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>1380.272222511808</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>1580.005498447351</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>1681.8241239819</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>1681.8241239819</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1539.998679715909</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1539.998679715909</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1539.998679715909</v>
+        <v>1432.819691509514</v>
       </c>
       <c r="V5" t="n">
-        <v>1539.998679715909</v>
+        <v>1101.756804165943</v>
       </c>
       <c r="W5" t="n">
-        <v>1187.230024445795</v>
+        <v>748.9881488958288</v>
       </c>
       <c r="X5" t="n">
-        <v>1187.230024445795</v>
+        <v>748.9881488958288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1187.230024445795</v>
+        <v>748.9881488958288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768.5560405412416</v>
+        <v>685.2531835201086</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3715507130366</v>
+        <v>510.8001542389815</v>
       </c>
       <c r="D6" t="n">
-        <v>608.4371410517854</v>
+        <v>510.8001542389815</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1996860463299</v>
+        <v>351.562699233526</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6651280732149</v>
+        <v>205.028141260411</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5615959787359</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="H6" t="n">
-        <v>67.90868800490236</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="I6" t="n">
-        <v>33.636482479638</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>58.75126853525094</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>242.1606351830117</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>658.4121058685321</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8132782177129</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>1206.594540740074</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>1444.893964213712</v>
+        <v>1448.853441912517</v>
       </c>
       <c r="P6" t="n">
-        <v>1616.81719415631</v>
+        <v>1621.182402866226</v>
       </c>
       <c r="Q6" t="n">
-        <v>1681.8241239819</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>1681.689525583251</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1681.689525583251</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1486.062064993553</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="U6" t="n">
-        <v>1257.945505501186</v>
+        <v>1315.193318779964</v>
       </c>
       <c r="V6" t="n">
-        <v>1022.793397269443</v>
+        <v>1269.080319510663</v>
       </c>
       <c r="W6" t="n">
-        <v>768.5560405412416</v>
+        <v>1269.080319510663</v>
       </c>
       <c r="X6" t="n">
-        <v>768.5560405412416</v>
+        <v>1061.22881930513</v>
       </c>
       <c r="Y6" t="n">
-        <v>768.5560405412416</v>
+        <v>853.4685205401765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>798.6160003923735</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="C7" t="n">
-        <v>798.6160003923735</v>
+        <v>238.303147076051</v>
       </c>
       <c r="D7" t="n">
-        <v>648.4993609800377</v>
+        <v>238.303147076051</v>
       </c>
       <c r="E7" t="n">
-        <v>500.5862673976446</v>
+        <v>238.303147076051</v>
       </c>
       <c r="F7" t="n">
-        <v>353.6963198997342</v>
+        <v>91.41319957814062</v>
       </c>
       <c r="G7" t="n">
-        <v>185.3727300194954</v>
+        <v>91.41319957814062</v>
       </c>
       <c r="H7" t="n">
-        <v>33.636482479638</v>
+        <v>91.41319957814062</v>
       </c>
       <c r="I7" t="n">
-        <v>33.636482479638</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="J7" t="n">
-        <v>35.74521617805886</v>
+        <v>35.96388306992288</v>
       </c>
       <c r="K7" t="n">
-        <v>169.0473501355481</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>395.154621885676</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>643.942160461869</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>892.2487038600638</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>1105.583690752458</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>1264.607944567853</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>1291.273014878453</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1173.531234008517</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>971.027313564853</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>798.6160003923735</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>798.6160003923735</v>
+        <v>661.9238182098447</v>
       </c>
       <c r="V7" t="n">
-        <v>798.6160003923735</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="W7" t="n">
-        <v>798.6160003923735</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="X7" t="n">
-        <v>798.6160003923735</v>
+        <v>407.2393300039579</v>
       </c>
       <c r="Y7" t="n">
-        <v>798.6160003923735</v>
+        <v>407.2393300039579</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2188.873570139075</v>
+        <v>1367.208738248819</v>
       </c>
       <c r="C8" t="n">
-        <v>1819.911053198663</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D8" t="n">
-        <v>1461.645354591913</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.857101993669</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139075</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2548.22367869607</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.054313852967</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C10" t="n">
-        <v>623.1181309250601</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D10" t="n">
-        <v>473.0014915127243</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485136</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>792.054313852967</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>792.054313852967</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.054313852967</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.514489367197</v>
+        <v>1632.481497938288</v>
       </c>
       <c r="C11" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.518980997877</v>
       </c>
       <c r="D11" t="n">
-        <v>863.2862738200351</v>
+        <v>905.2532823911263</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>519.465029792882</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.4791250032745</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.4791250032744</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.4791250032744</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.56219463892859</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.6138734751144</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.6918517044007</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1041.046886751363</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1574.935767489921</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2122.077336861302</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2625.392344462981</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3020.459057987812</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3268.964960291305</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3328.109731946429</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3217.866330961446</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3113.749315582872</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>3113.749315582872</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.09759726723</v>
+        <v>2782.686428239302</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997115</v>
+        <v>2782.686428239302</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736035</v>
+        <v>2409.220669978222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.114329431319</v>
+        <v>2019.08133800241</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438928171294</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908635360024</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564538747512</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189988692957</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844408961806</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0224505625075</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.53127485750875</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.56219463892859</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>158.5196481546033</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>396.9594945857131</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>763.8938345721706</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1211.445770333926</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.251719018695</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.471801360984</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.179105000253</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2564.959512727169</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.884066363456</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.466794531305</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828267617837</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760493767628</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608385535886</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.371028807684</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519528602151</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759229837197</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.6594280995014</v>
+        <v>795.3010209188918</v>
       </c>
       <c r="C13" t="n">
-        <v>463.6594280995014</v>
+        <v>626.3648379909849</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>626.3648379909851</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4517444085919</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5617969106816</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8598907327001</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8598907327001</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.56219463892859</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.749300635728</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.8424334325225</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.537811209098</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.8378062004821</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1318.385733281152</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.84422955958</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1850.562023950728</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1928.248681922427</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1928.248681922427</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1928.248681922427</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1706.486042039506</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1706.486042039506</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>1494.35620668411</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>1204.939036647149</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>976.9494857491316</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>976.9494857491316</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>870.3164745246256</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2311.800723230285</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T16" t="n">
-        <v>2092.199258253227</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U16" t="n">
-        <v>1803.124031597425</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V16" t="n">
-        <v>1548.439543391538</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W16" t="n">
-        <v>1259.022373354577</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="X16" t="n">
-        <v>1031.03282245656</v>
+        <v>1272.757518498395</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1051.964939354865</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021782</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101294</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F19" t="n">
-        <v>296.7882229101294</v>
+        <v>114.9565346495159</v>
       </c>
       <c r="G19" t="n">
-        <v>129.5921236250094</v>
+        <v>114.9565346495159</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5921236250094</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773693</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>264.0500279773693</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>96.85392869224921</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
         <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597621</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>771.9023698813637</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656825</v>
+        <v>618.289020140793</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150031</v>
+        <v>483.4952139157936</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>350.9049535207367</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580124</v>
+        <v>312.4537993105058</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345486</v>
+        <v>160.580533212722</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384031</v>
+        <v>160.580533212722</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>189.0705902852039</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>465.7777616176508</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>871.1942646004991</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1308.221876138442</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1740.649656605359</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2125.196846121252</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2432.890210501719</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2567.106354035526</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2515.383483475265</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2347.851482317506</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2143.572850527783</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1869.820457059317</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1630.458802040766</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1356.364465191142</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1143.697747480461</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>938.2280015242671</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942664</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>5.262887399594547</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.4465884600059</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>62.95896194901587</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>209.2140757274037</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>147.359858416601</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3273467878351</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>35.19601322587835</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.63359754465532</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9196721235339</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.5867336740317</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>100.8331355876096</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9950076765084</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>225.1165728943844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.29464513706803</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7468251171895</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.89073473895206</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.7529723241816</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2117879614587</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>42.1291063219856</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.506629716722358</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011489</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>47.21554925516872</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>119.3662399606952</v>
       </c>
       <c r="I19" t="n">
-        <v>45.8481303472984</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>137.2878198583893</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>44.73700564187203</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.4596884482314</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>92.18480049933973</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>125.125107990761</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1196701.891136973</v>
+        <v>1203931.060965577</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1205661.501672645</v>
+        <v>1205674.298271516</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>998040.746490855</v>
+        <v>998373.9614777069</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1199659.725778396</v>
+        <v>1192097.34096294</v>
       </c>
     </row>
     <row r="14">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244816.8406499187</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>204598.2593825524</v>
+        <v>204667.2004143146</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
@@ -26332,10 +26332,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592847</v>
+        <v>244747.8996181561</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592847</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26366,40 +26366,40 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>173504.6373582854</v>
+        <v>174787.7031330586</v>
       </c>
       <c r="D3" t="n">
-        <v>226885.1929153196</v>
+        <v>225670.6156307091</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182670.2737117292</v>
       </c>
       <c r="F3" t="n">
-        <v>317694.1318125474</v>
+        <v>317111.001347978</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.309604032037948e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>40340.4139170158</v>
+        <v>40638.7310411295</v>
       </c>
       <c r="L3" t="n">
-        <v>55712.61840035507</v>
+        <v>55419.25877810592</v>
       </c>
       <c r="M3" t="n">
-        <v>66979.98378704675</v>
+        <v>59843.94579570672</v>
       </c>
       <c r="N3" t="n">
-        <v>83595.25861206527</v>
+        <v>90733.97390953319</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246592.3303845953</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>202524.3953695422</v>
+        <v>202177.504183682</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.722666020103</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768941</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.14432176895</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768919</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768932</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.0035848624</v>
+        <v>14938.7003044727</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.0035848624</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486242</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75519.15965147353</v>
+        <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74355.53577789094</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>102397.823334501</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744911.273530136</v>
+        <v>-746261.2191668786</v>
       </c>
       <c r="C6" t="n">
-        <v>-205235.6614200163</v>
+        <v>-206264.0616166481</v>
       </c>
       <c r="D6" t="n">
-        <v>-211440.8448031012</v>
+        <v>-210226.2675184907</v>
       </c>
       <c r="E6" t="n">
-        <v>-61551.46409812316</v>
+        <v>-62476.37616253371</v>
       </c>
       <c r="F6" t="n">
-        <v>-186619.8260512217</v>
+        <v>-186071.4335120879</v>
       </c>
       <c r="G6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.56783589</v>
       </c>
       <c r="H6" t="n">
-        <v>131074.3057613258</v>
+        <v>131039.5678358899</v>
       </c>
       <c r="I6" t="n">
-        <v>131074.3057613259</v>
+        <v>131039.5678358901</v>
       </c>
       <c r="J6" t="n">
-        <v>62075.15134221174</v>
+        <v>62040.41341677603</v>
       </c>
       <c r="K6" t="n">
-        <v>90733.89184430997</v>
+        <v>90400.83679476057</v>
       </c>
       <c r="L6" t="n">
-        <v>75361.68736097068</v>
+        <v>75620.30905778415</v>
       </c>
       <c r="M6" t="n">
-        <v>58230.42773346021</v>
+        <v>67554.3915889663</v>
       </c>
       <c r="N6" t="n">
-        <v>41615.15290844167</v>
+        <v>34476.43761097395</v>
       </c>
       <c r="O6" t="n">
-        <v>125210.411520507</v>
+        <v>125210.4115205072</v>
       </c>
       <c r="P6" t="n">
         <v>125210.4115205072</v>
@@ -26695,13 +26695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>748.9831636214975</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1090.287516160789</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>420.4560309954751</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>832.0274329866073</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.115042636576801</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>134.9281498520191</v>
+        <v>135.9259427281316</v>
       </c>
       <c r="D3" t="n">
-        <v>185.0817284960416</v>
+        <v>184.0839356199292</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>156.2226240432502</v>
       </c>
       <c r="F3" t="n">
-        <v>278.1987997483757</v>
+        <v>277.6879841808841</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7421509939688</v>
+        <v>157.9012582804756</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1288011045636</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>191.4426008865685</v>
       </c>
       <c r="F4" t="n">
-        <v>341.3068326973558</v>
+        <v>340.6808551130408</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>156.7421509939688</v>
+        <v>157.9012582804758</v>
       </c>
       <c r="L4" t="n">
-        <v>220.1288011045634</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>191.4426008865685</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973558</v>
+        <v>340.6808551130408</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>156.7421509939688</v>
+        <v>157.9012582804756</v>
       </c>
       <c r="L4" t="n">
-        <v>220.1288011045636</v>
+        <v>218.9696938180571</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>191.4426008865685</v>
       </c>
       <c r="N4" t="n">
-        <v>341.3068326973558</v>
+        <v>340.6808551130408</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>257.8707591095859</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>86.48669709954845</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>115.0273700322151</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>25.85737108092579</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>86.96477411849754</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>21.60955029494349</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>199.4165164644614</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>93.79127764529869</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.021606323517</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.39479041254545</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.9152513781892</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1047739004406</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>161.6358540583928</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7591739534884</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.1487178728179</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.83348631644</v>
+        <v>57.67222786905999</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>51.48753550388577</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2453588813806</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>163.8432307563323</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>170.7880014781324</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,13 +27910,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.57653304352931</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>253.7709930769998</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28530,10 +28530,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.775142265859745e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-3.151399141643196e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>15.16960485546288</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30700,13 +30700,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.010987592448229</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>30.83627668116043</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.0810991578605</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>255.5538081745531</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>383.0089129628867</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>475.1564244952743</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>528.7030750924755</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>537.258043589519</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>507.3175357171119</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>432.9837795285462</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.1527863739939</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>189.1389493541262</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>68.61287976291409</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>13.18059818594213</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2408790073958583</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.611020389676429</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5590653424013</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.46714938140336</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>152.2060974299121</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>260.1444635382328</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>349.7963350479457</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>408.1958241737161</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>418.9995530150111</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>383.3027328016545</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>307.634235639177</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.6453395664157</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>100.0245817379804</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>29.92399715034943</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.493542711020339</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.105988183531344</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.350625377022372</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>12.00828744298074</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>40.61698861081827</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>95.48921415548172</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>156.9181119849629</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>200.8011583256717</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>211.7166670545161</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>206.6825179219783</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>190.9047578358532</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>163.3520001445967</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.0964577068461</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.7290283159332</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>23.53771679774443</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>5.770853883641045</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0736704751103113</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.383065391601161</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.88806844173539</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.9781285097039</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>372.0071962804093</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.5423543068865</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.6805917851007</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.6279309429877</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>782.0813154868747</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.4972089991405</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>630.2902821439868</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.3217528072701</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.3277314051666</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.87910261111153</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.18686875173409</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3506452313280928</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.345146732874151</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.64918028854773</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.74299058360565</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>219.7239433491665</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.6897687027527</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>509.1951272409423</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>594.2066963076302</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.9335794416854</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.9700649922108</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.8201686661175</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.3559233051285</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.6048120638881</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.56007199000887</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.452587050488351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542859692680363</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.966092242257161</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.48034739025005</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.12575579442446</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>139.0027215275813</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.4241714186047</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.3042957261238</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.1938957567293</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.865733762862</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.8982016601305</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.7899199180842</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.6334149402792</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.40265663821742</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.26362571279069</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.400575944189686</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1072413950322089</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>270.4557004614709</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221156</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>693.4464364470641</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>347.4623967873087</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,13 +34214,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>679.7882761221643</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80.70129221722505</v>
+        <v>121.2219182534624</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34787,10 +34787,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015063</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.50790364786681</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>162.9190619179062</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>239.390009525287</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>298.3568418652028</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>307.8449799929281</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>277.2193242954252</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>201.7507837732767</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.8470964995444</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.3684707632454</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>185.2619865128897</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>420.4560309954751</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.0617902516977</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>287.6578409316778</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>240.70648835721</v>
+        <v>388.5769813978721</v>
       </c>
       <c r="P6" t="n">
-        <v>173.6598282248468</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.6635654803942</v>
+        <v>65.93752551686947</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.130034038808944</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>134.64862015908</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>228.3911835859878</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>251.3005440163566</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>250.8146903012069</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>215.4898857498929</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>160.6305594094902</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.93441445515174</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>528.7520287839581</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>14.25823202432846</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.961291753723</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.452503261906</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.9141768151134</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>539.281697715715</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.6682518902837</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.3989975774538</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>399.0572863887173</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>251.0160629328206</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.74219359103449</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>92.88631668249975</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.8483297283937</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.6407474610681</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>452.0726623856119</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.5918673583521</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.3738205477664</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.8457612517873</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.374149219107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.64354141090851</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.1546795927218</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.8943209864399</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.7777727185699</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.9979061420905</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.4833295741702</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>235.0684791829777</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.47137168858482</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>136.4812930471406</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077854</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>562.1047243637308</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>96.21608811841624</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>279.5021932650978</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>409.5116191745943</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>441.442031856508</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>436.7957378453703</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>388.4315045615083</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>310.8013781620878</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>135.5718621553612</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>208.9080170074345</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>548.4465640388311</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
